--- a/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franky/2023秋硬件综合训练课设资料发布包/cpu21-riscv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C2131E-37E3-0D47-88C3-880ABD9FEFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82CE864-9758-FD4A-A0A9-A148D1233C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="126">
   <si>
     <t>#</t>
   </si>
@@ -942,6 +942,34 @@
   </si>
   <si>
     <t>1b</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>sra</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>lui</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>sh</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_Type</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiftImm</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2073,7 +2101,7 @@
   <dimension ref="A1:AL62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -2186,19 +2214,19 @@
         <v>74</v>
       </c>
       <c r="AE1" s="25" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="AF1" s="25" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="AG1" s="25" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="AH1" s="25" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="AI1" s="25" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="AJ1" s="25" t="s">
         <v>13</v>
@@ -3345,7 +3373,9 @@
       <c r="AC13" s="56"/>
       <c r="AD13" s="56"/>
       <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
+      <c r="AF13" s="57">
+        <v>1</v>
+      </c>
       <c r="AG13" s="57"/>
       <c r="AH13" s="57"/>
       <c r="AI13" s="57"/>
@@ -3442,7 +3472,9 @@
       <c r="AC14" s="30"/>
       <c r="AD14" s="30"/>
       <c r="AE14" s="35"/>
-      <c r="AF14" s="35"/>
+      <c r="AF14" s="35">
+        <v>1</v>
+      </c>
       <c r="AG14" s="35"/>
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
@@ -3539,7 +3571,9 @@
       <c r="AC15" s="56"/>
       <c r="AD15" s="56"/>
       <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
+      <c r="AF15" s="57">
+        <v>1</v>
+      </c>
       <c r="AG15" s="57"/>
       <c r="AH15" s="57"/>
       <c r="AI15" s="57"/>
@@ -3912,7 +3946,9 @@
       <c r="AB19" s="56"/>
       <c r="AC19" s="56"/>
       <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
+      <c r="AE19" s="57">
+        <v>1</v>
+      </c>
       <c r="AF19" s="57"/>
       <c r="AG19" s="57"/>
       <c r="AH19" s="57"/>
@@ -4003,7 +4039,9 @@
       </c>
       <c r="AC20" s="30"/>
       <c r="AD20" s="30"/>
-      <c r="AE20" s="35"/>
+      <c r="AE20" s="35">
+        <v>1</v>
+      </c>
       <c r="AF20" s="35"/>
       <c r="AG20" s="35"/>
       <c r="AH20" s="35"/>
@@ -4470,71 +4508,83 @@
       <c r="A26" s="34">
         <v>25</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="20" t="str">
+      <c r="B26" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="36">
+        <v>32</v>
+      </c>
+      <c r="D26" s="36">
+        <v>5</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G26" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H26" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I26" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="I26" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J26" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="J26" s="28">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K26" s="35" t="str">
+        <v>1</v>
+      </c>
+      <c r="K26" s="35">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L26" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="L26" s="35">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M26" s="35" t="str">
+        <v>1</v>
+      </c>
+      <c r="M26" s="35">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N26" s="35" t="str">
+        <v>1</v>
+      </c>
+      <c r="N26" s="35">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O26" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="O26" s="63">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="P26" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="38">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R26" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="R26" s="38">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S26" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="S26" s="38">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T26" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="T26" s="38">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U26" s="30"/>
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
+      <c r="X26" s="30">
+        <v>1</v>
+      </c>
       <c r="Y26" s="30"/>
       <c r="Z26" s="30"/>
       <c r="AA26" s="30"/>
@@ -4553,10 +4603,14 @@
       <c r="A27" s="56">
         <v>26</v>
       </c>
-      <c r="B27" s="56"/>
+      <c r="B27" s="56" t="s">
+        <v>120</v>
+      </c>
       <c r="C27" s="43"/>
       <c r="D27" s="58"/>
-      <c r="E27" s="60"/>
+      <c r="E27" s="60" t="s">
+        <v>125</v>
+      </c>
       <c r="F27" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4577,47 +4631,51 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K27" s="59" t="str">
+      <c r="K27" s="59">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L27" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="L27" s="59">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M27" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="M27" s="59">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N27" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="N27" s="59">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O27" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O27" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="62" t="str">
+        <v>1</v>
+      </c>
+      <c r="P27" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="62">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R27" s="62" t="str">
+        <v>0</v>
+      </c>
+      <c r="R27" s="62">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S27" s="62" t="str">
+        <v>0</v>
+      </c>
+      <c r="S27" s="62">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T27" s="62" t="str">
+        <v>0</v>
+      </c>
+      <c r="T27" s="62">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U27" s="56"/>
       <c r="V27" s="56"/>
       <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
+      <c r="X27" s="56">
+        <v>1</v>
+      </c>
       <c r="Y27" s="56"/>
       <c r="Z27" s="56"/>
       <c r="AA27" s="56"/>
@@ -4627,7 +4685,9 @@
       <c r="AE27" s="57"/>
       <c r="AF27" s="57"/>
       <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
+      <c r="AH27" s="57">
+        <v>1</v>
+      </c>
       <c r="AI27" s="57"/>
       <c r="AJ27" s="57"/>
       <c r="AK27" s="57"/>
@@ -4636,10 +4696,16 @@
       <c r="A28" s="34">
         <v>27</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="30" t="s">
+        <v>121</v>
+      </c>
       <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="28"/>
+      <c r="D28" s="36">
+        <v>1</v>
+      </c>
+      <c r="E28" s="28">
+        <v>8</v>
+      </c>
       <c r="F28" s="20" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4648,37 +4714,37 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H28" s="20" t="str">
+      <c r="H28" s="20">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="J28" s="28">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K28" s="35" t="str">
+        <v>1</v>
+      </c>
+      <c r="K28" s="35">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L28" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="L28" s="35">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M28" s="35" t="str">
+        <v>1</v>
+      </c>
+      <c r="M28" s="35">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N28" s="35" t="str">
+        <v>0</v>
+      </c>
+      <c r="N28" s="35">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O28" s="63" t="str">
+        <v>0</v>
+      </c>
+      <c r="O28" s="63">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P28" s="37"/>
       <c r="Q28" s="38" t="str">
@@ -4698,11 +4764,17 @@
         <v>X</v>
       </c>
       <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
+      <c r="V28" s="30">
+        <v>1</v>
+      </c>
+      <c r="W28" s="30">
+        <v>1</v>
+      </c>
       <c r="X28" s="30"/>
       <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
+      <c r="Z28" s="30">
+        <v>1</v>
+      </c>
       <c r="AA28" s="30"/>
       <c r="AB28" s="30"/>
       <c r="AC28" s="30"/>
@@ -4711,7 +4783,9 @@
       <c r="AF28" s="35"/>
       <c r="AG28" s="35"/>
       <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
+      <c r="AI28" s="35">
+        <v>1</v>
+      </c>
       <c r="AJ28" s="35"/>
       <c r="AK28" s="35"/>
     </row>
@@ -4719,10 +4793,16 @@
       <c r="A29" s="56">
         <v>28</v>
       </c>
-      <c r="B29" s="56"/>
+      <c r="B29" s="56" t="s">
+        <v>122</v>
+      </c>
       <c r="C29" s="43"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="60"/>
+      <c r="D29" s="58">
+        <v>5</v>
+      </c>
+      <c r="E29" s="60">
+        <v>18</v>
+      </c>
       <c r="F29" s="58" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -4731,54 +4811,56 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H29" s="58" t="str">
+      <c r="H29" s="58">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I29" s="58" t="str">
+        <v>1</v>
+      </c>
+      <c r="I29" s="58">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J29" s="60" t="str">
+        <v>0</v>
+      </c>
+      <c r="J29" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K29" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="K29" s="59">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L29" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="L29" s="59">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M29" s="59" t="str">
+        <v>1</v>
+      </c>
+      <c r="M29" s="59">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N29" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="N29" s="59">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O29" s="64" t="str">
+        <v>0</v>
+      </c>
+      <c r="O29" s="64">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="62" t="str">
+        <v>0</v>
+      </c>
+      <c r="P29" s="61">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="62">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R29" s="62" t="str">
+        <v>0</v>
+      </c>
+      <c r="R29" s="62">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S29" s="62" t="str">
+        <v>1</v>
+      </c>
+      <c r="S29" s="62">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T29" s="62" t="str">
+        <v>1</v>
+      </c>
+      <c r="T29" s="62">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>0</v>
       </c>
       <c r="U29" s="56"/>
       <c r="V29" s="56"/>
@@ -4790,9 +4872,13 @@
       <c r="AB29" s="56"/>
       <c r="AC29" s="56"/>
       <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
+      <c r="AE29" s="57">
+        <v>1</v>
+      </c>
       <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
+      <c r="AG29" s="57">
+        <v>1</v>
+      </c>
       <c r="AH29" s="57"/>
       <c r="AI29" s="57"/>
       <c r="AJ29" s="57"/>
@@ -7143,8 +7229,8 @@
   <dimension ref="A1:AX63"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -7290,23 +7376,23 @@
       </c>
       <c r="AF1" s="25" t="str">
         <f>真值表!AE1</f>
-        <v>XXX</v>
+        <v>B_Type</v>
       </c>
       <c r="AG1" s="25" t="str">
         <f>真值表!AF1</f>
-        <v>XXX</v>
+        <v>ShiftImm</v>
       </c>
       <c r="AH1" s="25" t="str">
         <f>真值表!AG1</f>
-        <v>XXX</v>
+        <v>bge</v>
       </c>
       <c r="AI1" s="25" t="str">
         <f>真值表!AH1</f>
-        <v>XXX</v>
+        <v>lui</v>
       </c>
       <c r="AJ1" s="25" t="str">
         <f>真值表!AI1</f>
-        <v>XXX</v>
+        <v>sh</v>
       </c>
       <c r="AK1" s="25" t="str">
         <f>真值表!AJ1</f>
@@ -9142,7 +9228,7 @@
       </c>
       <c r="AG13" s="48" t="str">
         <f>IF(真值表!AF13=1,$O13&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH13" s="48" t="str">
         <f>IF(真值表!AG13=1,$O13&amp;"+","")</f>
@@ -9296,7 +9382,7 @@
       </c>
       <c r="AG14" s="24" t="str">
         <f>IF(真值表!AF14=1,$O14&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH14" s="24" t="str">
         <f>IF(真值表!AG14=1,$O14&amp;"+","")</f>
@@ -9450,7 +9536,7 @@
       </c>
       <c r="AG15" s="48" t="str">
         <f>IF(真值表!AF15=1,$O15&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH15" s="48" t="str">
         <f>IF(真值表!AG15=1,$O15&amp;"+","")</f>
@@ -10062,7 +10148,7 @@
       </c>
       <c r="AF19" s="48" t="str">
         <f>IF(真值表!AE19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG19" s="48" t="str">
         <f>IF(真值表!AF19=1,$O19&amp;"+","")</f>
@@ -10216,7 +10302,7 @@
       </c>
       <c r="AF20" s="24" t="str">
         <f>IF(真值表!AE20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG20" s="24" t="str">
         <f>IF(真值表!AF20=1,$O20&amp;"+","")</f>
@@ -11016,63 +11102,63 @@
     <row r="26" spans="1:38" ht="16">
       <c r="A26" s="30" t="str">
         <f>IF(ISBLANK(真值表!B26),"",真值表!B26)</f>
-        <v/>
-      </c>
-      <c r="B26" s="36" t="str">
+        <v>sra</v>
+      </c>
+      <c r="B26" s="36">
         <f>IF(ISBLANK(真值表!C26),"",真值表!C26)</f>
-        <v/>
-      </c>
-      <c r="C26" s="36" t="str">
+        <v>32</v>
+      </c>
+      <c r="C26" s="36">
         <f>IF(ISBLANK(真值表!D26),"",真值表!D26)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="D26" s="35" t="str">
         <f>IF(ISBLANK(真值表!E26),"",真值表!E26)</f>
-        <v/>
+        <v>c</v>
       </c>
       <c r="E26" s="54" t="str">
         <f>IF(真值表!F26=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F26=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;</v>
       </c>
       <c r="F26" s="54" t="str">
         <f>IF(真值表!G26=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G26=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G26" s="54" t="str">
         <f>IF(真值表!H26=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H26=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H26" s="54" t="str">
         <f>IF(真值表!I26=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I26=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I26" s="54" t="str">
         <f>IF(真值表!J26=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J26=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J26" s="53" t="str">
         <f>IF(真值表!K26=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K26=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K26" s="53" t="str">
         <f>IF(真值表!L26=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L26=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L26" s="53" t="str">
         <f>IF(真值表!M26=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M26=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M26" s="53" t="str">
         <f>IF(真值表!N26=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N26=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N26" s="53" t="str">
         <f>IF(真值表!O26=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O26=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O26" s="52" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P26" s="24" t="str">
         <f>IF(真值表!Q26=1,$O26&amp;"+","")</f>
@@ -11088,7 +11174,7 @@
       </c>
       <c r="S26" s="24" t="str">
         <f>IF(真值表!T26=1,$O26&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T26" s="24" t="str">
         <f>IF(真值表!U26=1,$O26&amp;"+","")</f>
@@ -11104,7 +11190,7 @@
       </c>
       <c r="W26" s="24" t="str">
         <f>IF(真值表!X26=1,$O26&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X26" s="24" t="str">
         <f>IF(真值表!Y26=1,$O26&amp;"+","")</f>
@@ -11170,7 +11256,7 @@
     <row r="27" spans="1:38" ht="16">
       <c r="A27" s="49" t="str">
         <f>IF(ISBLANK(真值表!B27),"",真值表!B27)</f>
-        <v/>
+        <v>lui</v>
       </c>
       <c r="B27" s="44" t="str">
         <f>IF(ISBLANK(真值表!C27),"",真值表!C27)</f>
@@ -11182,7 +11268,7 @@
       </c>
       <c r="D27" s="50" t="str">
         <f>IF(ISBLANK(真值表!E27),"",真值表!E27)</f>
-        <v/>
+        <v>d</v>
       </c>
       <c r="E27" s="46" t="str">
         <f>IF(真值表!F27=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F27=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11206,27 +11292,27 @@
       </c>
       <c r="J27" s="45" t="str">
         <f>IF(真值表!K27=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K27=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K27" s="45" t="str">
         <f>IF(真值表!L27=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L27=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L27" s="45" t="str">
         <f>IF(真值表!M27=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M27=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP4&amp;</v>
       </c>
       <c r="M27" s="45" t="str">
         <f>IF(真值表!N27=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N27=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N27" s="45" t="str">
         <f>IF(真值表!O27=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O27=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP2&amp;</v>
       </c>
       <c r="O27" s="47" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="P27" s="48" t="str">
         <f>IF(真值表!Q27=1,$O27&amp;"+","")</f>
@@ -11258,7 +11344,7 @@
       </c>
       <c r="W27" s="48" t="str">
         <f>IF(真值表!X27=1,$O27&amp;"+","")</f>
-        <v/>
+        <v>~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="X27" s="48" t="str">
         <f>IF(真值表!Y27=1,$O27&amp;"+","")</f>
@@ -11306,7 +11392,7 @@
       </c>
       <c r="AI27" s="48" t="str">
         <f>IF(真值表!AH27=1,$O27&amp;"+","")</f>
-        <v/>
+        <v>~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="AJ27" s="48" t="str">
         <f>IF(真值表!AI27=1,$O27&amp;"+","")</f>
@@ -11324,19 +11410,19 @@
     <row r="28" spans="1:38" ht="16">
       <c r="A28" s="30" t="str">
         <f>IF(ISBLANK(真值表!B28),"",真值表!B28)</f>
-        <v/>
+        <v>sh</v>
       </c>
       <c r="B28" s="36" t="str">
         <f>IF(ISBLANK(真值表!C28),"",真值表!C28)</f>
         <v/>
       </c>
-      <c r="C28" s="36" t="str">
+      <c r="C28" s="36">
         <f>IF(ISBLANK(真值表!D28),"",真值表!D28)</f>
-        <v/>
-      </c>
-      <c r="D28" s="35" t="str">
+        <v>1</v>
+      </c>
+      <c r="D28" s="35">
         <f>IF(ISBLANK(真值表!E28),"",真值表!E28)</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="E28" s="54" t="str">
         <f>IF(真值表!F28=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F28=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11348,39 +11434,39 @@
       </c>
       <c r="G28" s="54" t="str">
         <f>IF(真值表!H28=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H28=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F14&amp;</v>
       </c>
       <c r="H28" s="54" t="str">
         <f>IF(真值表!I28=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I28=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I28" s="54" t="str">
         <f>IF(真值表!J28=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J28=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J28" s="53" t="str">
         <f>IF(真值表!K28=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K28=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP6&amp;</v>
       </c>
       <c r="K28" s="53" t="str">
         <f>IF(真值表!L28=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L28=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L28" s="53" t="str">
         <f>IF(真值表!M28=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M28=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M28" s="53" t="str">
         <f>IF(真值表!N28=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N28=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N28" s="53" t="str">
         <f>IF(真值表!O28=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O28=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O28" s="52" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P28" s="24" t="str">
         <f>IF(真值表!Q28=1,$O28&amp;"+","")</f>
@@ -11404,11 +11490,11 @@
       </c>
       <c r="U28" s="24" t="str">
         <f>IF(真值表!V28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="V28" s="24" t="str">
         <f>IF(真值表!W28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W28" s="24" t="str">
         <f>IF(真值表!X28=1,$O28&amp;"+","")</f>
@@ -11420,7 +11506,7 @@
       </c>
       <c r="Y28" s="24" t="str">
         <f>IF(真值表!Z28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z28" s="24" t="str">
         <f>IF(真值表!AA28=1,$O28&amp;"+","")</f>
@@ -11464,7 +11550,7 @@
       </c>
       <c r="AJ28" s="24" t="str">
         <f>IF(真值表!AI28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AK28" s="24" t="str">
         <f>IF(真值表!AJ28=1,$O28&amp;"+","")</f>
@@ -11478,19 +11564,19 @@
     <row r="29" spans="1:38" ht="16">
       <c r="A29" s="49" t="str">
         <f>IF(ISBLANK(真值表!B29),"",真值表!B29)</f>
-        <v/>
+        <v>bge</v>
       </c>
       <c r="B29" s="44" t="str">
         <f>IF(ISBLANK(真值表!C29),"",真值表!C29)</f>
         <v/>
       </c>
-      <c r="C29" s="51" t="str">
+      <c r="C29" s="51">
         <f>IF(ISBLANK(真值表!D29),"",真值表!D29)</f>
-        <v/>
-      </c>
-      <c r="D29" s="50" t="str">
+        <v>5</v>
+      </c>
+      <c r="D29" s="50">
         <f>IF(ISBLANK(真值表!E29),"",真值表!E29)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="E29" s="46" t="str">
         <f>IF(真值表!F29=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F29=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
@@ -11502,39 +11588,39 @@
       </c>
       <c r="G29" s="46" t="str">
         <f>IF(真值表!H29=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H29=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;</v>
       </c>
       <c r="H29" s="46" t="str">
         <f>IF(真值表!I29=1," "&amp;真值表!I$1&amp;"&amp;",IF(真值表!I29=0,"~"&amp;真值表!I$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F13&amp;</v>
       </c>
       <c r="I29" s="46" t="str">
         <f>IF(真值表!J29=1," "&amp;真值表!J$1&amp;"&amp;",IF(真值表!J29=0,"~"&amp;真值表!J$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> F12&amp;</v>
       </c>
       <c r="J29" s="45" t="str">
         <f>IF(真值表!K29=1," "&amp;真值表!K$1&amp;"&amp;",IF(真值表!K29=0,"~"&amp;真值表!K$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP6&amp;</v>
       </c>
       <c r="K29" s="45" t="str">
         <f>IF(真值表!L29=1," "&amp;真值表!L$1&amp;"&amp;",IF(真值表!L29=0,"~"&amp;真值表!L$1&amp;"&amp;",""))</f>
-        <v/>
+        <v xml:space="preserve"> OP5&amp;</v>
       </c>
       <c r="L29" s="45" t="str">
         <f>IF(真值表!M29=1," "&amp;真值表!M$1&amp;"&amp;",IF(真值表!M29=0,"~"&amp;真值表!M$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP4&amp;</v>
       </c>
       <c r="M29" s="45" t="str">
         <f>IF(真值表!N29=1," "&amp;真值表!N$1&amp;"&amp;",IF(真值表!N29=0,"~"&amp;真值表!N$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP3&amp;</v>
       </c>
       <c r="N29" s="45" t="str">
         <f>IF(真值表!O29=1," "&amp;真值表!O$1&amp;"&amp;",IF(真值表!O29=0,"~"&amp;真值表!O$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~OP2&amp;</v>
       </c>
       <c r="O29" s="47" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P29" s="48" t="str">
         <f>IF(真值表!Q29=1,$O29&amp;"+","")</f>
@@ -11542,11 +11628,11 @@
       </c>
       <c r="Q29" s="48" t="str">
         <f>IF(真值表!R29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R29" s="48" t="str">
         <f>IF(真值表!S29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S29" s="48" t="str">
         <f>IF(真值表!T29=1,$O29&amp;"+","")</f>
@@ -11602,7 +11688,7 @@
       </c>
       <c r="AF29" s="48" t="str">
         <f>IF(真值表!AE29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG29" s="48" t="str">
         <f>IF(真值表!AF29=1,$O29&amp;"+","")</f>
@@ -11610,7 +11696,7 @@
       </c>
       <c r="AH29" s="48" t="str">
         <f>IF(真值表!AG29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI29" s="48" t="str">
         <f>IF(真值表!AH29=1,$O29&amp;"+","")</f>
@@ -15965,15 +16051,15 @@
       </c>
       <c r="Q58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="R58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="S58" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="T58" s="29" t="str">
         <f t="shared" si="2"/>
@@ -15981,15 +16067,15 @@
       </c>
       <c r="U58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="V58" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="W58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="X58" s="29" t="str">
         <f t="shared" si="2"/>
@@ -15997,7 +16083,7 @@
       </c>
       <c r="Y58" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Z58" s="29" t="str">
         <f t="shared" si="2"/>
@@ -16025,23 +16111,23 @@
       </c>
       <c r="AF58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AG58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AH58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AI58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2</v>
       </c>
       <c r="AJ58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AK58" s="29" t="str">
         <f t="shared" si="2"/>
@@ -16061,17 +16147,17 @@
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
 )</f>
-        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
@@ -16081,15 +16167,15 @@
       <c r="U59" t="str">
         <f t="shared" ref="U59:AX59" si="3">CONCATENATE(U2,U3,U4,U5,U6,U7,U8,U9,U10,U11,U12,U13,U14,U15,U16,U17,U18,U19,U20,U21,U22,U23,U24,U25,U26,U27,U28,U29,U30,U31,U32,U33,U34,U35,U36,U37,U38,U39,U40,U41,U42,U43,U44,U45,U46,U47,U48,U49,U50,U51,U52,U53,U54,U55,U56,U57,
 )</f>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
@@ -16097,7 +16183,7 @@
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Z59" t="str">
         <f t="shared" si="3"/>
@@ -16125,23 +16211,23 @@
       </c>
       <c r="AF59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AG59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AH59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AI59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="AJ59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AK59" t="str">
         <f t="shared" si="3"/>

--- a/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franky/2023秋硬件综合训练课设资料发布包/cpu21-riscv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82CE864-9758-FD4A-A0A9-A148D1233C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B6A187-20EA-A24B-98B9-024E4B4E3EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2100,8 +2100,8 @@
   </sheetPr>
   <dimension ref="A1:AL62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -4194,22 +4194,24 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38" t="str">
+      <c r="P22" s="37">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="38">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R22" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="R22" s="38">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S22" s="38" t="str">
+        <v>1</v>
+      </c>
+      <c r="S22" s="38">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T22" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="T22" s="38">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U22" s="30"/>
       <c r="V22" s="30"/>
@@ -7229,7 +7231,7 @@
   <dimension ref="A1:AX63"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
@@ -10550,7 +10552,7 @@
       </c>
       <c r="Q22" s="24" t="str">
         <f>IF(真值表!R22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="R22" s="24" t="str">
         <f>IF(真值表!S22=1,$O22&amp;"+","")</f>
@@ -10558,7 +10560,7 @@
       </c>
       <c r="S22" s="24" t="str">
         <f>IF(真值表!T22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="T22" s="24" t="str">
         <f>IF(真值表!U22=1,$O22&amp;"+","")</f>
@@ -16051,7 +16053,7 @@
       </c>
       <c r="Q58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="R58" s="29" t="str">
         <f t="shared" si="2"/>
@@ -16059,7 +16061,7 @@
       </c>
       <c r="S58" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="T58" s="29" t="str">
         <f t="shared" si="2"/>
@@ -16147,7 +16149,7 @@
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
@@ -16157,7 +16159,7 @@
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
@@ -16366,7 +16368,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>

--- a/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franky/2023秋硬件综合训练课设资料发布包/cpu21-riscv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B6A187-20EA-A24B-98B9-024E4B4E3EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02981F60-18F5-4D4F-B01C-9938168B6E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2100,8 +2100,8 @@
   </sheetPr>
   <dimension ref="A1:AL62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -3634,22 +3634,24 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38" t="str">
+      <c r="P16" s="37">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="38">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R16" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="R16" s="38">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S16" s="38" t="str">
+        <v>1</v>
+      </c>
+      <c r="S16" s="38">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T16" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="T16" s="38">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U16" s="30">
         <v>1</v>
@@ -3729,22 +3731,24 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="62" t="str">
+      <c r="P17" s="61">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="62">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R17" s="62" t="str">
+        <v>0</v>
+      </c>
+      <c r="R17" s="62">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S17" s="62" t="str">
+        <v>1</v>
+      </c>
+      <c r="S17" s="62">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T17" s="62" t="str">
+        <v>0</v>
+      </c>
+      <c r="T17" s="62">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U17" s="56"/>
       <c r="V17" s="56">
@@ -4748,22 +4752,24 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="38" t="str">
+      <c r="P28" s="37">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="38">
         <f t="shared" si="8"/>
-        <v>X</v>
-      </c>
-      <c r="R28" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="R28" s="38">
         <f t="shared" si="9"/>
-        <v>X</v>
-      </c>
-      <c r="S28" s="38" t="str">
+        <v>1</v>
+      </c>
+      <c r="S28" s="38">
         <f t="shared" si="10"/>
-        <v>X</v>
-      </c>
-      <c r="T28" s="38" t="str">
+        <v>0</v>
+      </c>
+      <c r="T28" s="38">
         <f t="shared" si="11"/>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="U28" s="30"/>
       <c r="V28" s="30">
@@ -9628,7 +9634,7 @@
       </c>
       <c r="Q16" s="24" t="str">
         <f>IF(真值表!R16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R16" s="24" t="str">
         <f>IF(真值表!S16=1,$O16&amp;"+","")</f>
@@ -9636,7 +9642,7 @@
       </c>
       <c r="S16" s="24" t="str">
         <f>IF(真值表!T16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T16" s="24" t="str">
         <f>IF(真值表!U16=1,$O16&amp;"+","")</f>
@@ -9782,7 +9788,7 @@
       </c>
       <c r="Q17" s="48" t="str">
         <f>IF(真值表!R17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R17" s="48" t="str">
         <f>IF(真值表!S17=1,$O17&amp;"+","")</f>
@@ -9790,7 +9796,7 @@
       </c>
       <c r="S17" s="48" t="str">
         <f>IF(真值表!T17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T17" s="48" t="str">
         <f>IF(真值表!U17=1,$O17&amp;"+","")</f>
@@ -11476,7 +11482,7 @@
       </c>
       <c r="Q28" s="24" t="str">
         <f>IF(真值表!R28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R28" s="24" t="str">
         <f>IF(真值表!S28=1,$O28&amp;"+","")</f>
@@ -11484,7 +11490,7 @@
       </c>
       <c r="S28" s="24" t="str">
         <f>IF(真值表!T28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T28" s="24" t="str">
         <f>IF(真值表!U28=1,$O28&amp;"+","")</f>
@@ -16053,7 +16059,7 @@
       </c>
       <c r="Q58" s="29" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="R58" s="29" t="str">
         <f t="shared" si="2"/>
@@ -16061,7 +16067,7 @@
       </c>
       <c r="S58" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="T58" s="29" t="str">
         <f t="shared" si="2"/>
@@ -16149,7 +16155,7 @@
       <c r="Q59" t="str">
         <f>CONCATENATE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11,Q12,Q13,Q14,Q15,Q16,Q17,Q18,Q19,Q20,Q21,Q22,Q23,Q24,Q25,Q26,Q27,Q28,Q29,Q30,Q31,Q32,Q33,Q34,Q35,Q36,Q37,Q38,Q39,Q40,Q41,Q42,Q43,Q44,Q45,Q46,Q47,Q48,Q49,Q50,Q51,Q52,Q53,Q54,Q55,Q56,Q57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="R59" t="str">
         <f>CONCATENATE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,
@@ -16159,7 +16165,7 @@
       <c r="S59" t="str">
         <f>CONCATENATE(S2,S3,S4,S5,S6,S7,S8,S9,S10,S11,S12,S13,S14,S15,S16,S17,S18,S19,S20,S21,S22,S23,S24,S25,S26,S27,S28,S29,S30,S31,S32,S33,S34,S35,S36,S37,S38,S39,S40,S41,S42,S43,S44,S45,S46,S47,S48,S49,S50,S51,S52,S53,S54,S55,S56,S57,
 )</f>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="T59" t="str">
         <f>CONCATENATE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11,T12,T13,T14,T15,T16,T17,T18,T19,T20,T21,T22,T23,T24,T25,T26,T27,T28,T29,T30,T31,T32,T33,T34,T35,T36,T37,T38,T39,T40,T41,T42,T43,T44,T45,T46,T47,T48,T49,T50,T51,T52,T53,T54,T55,T56,T57,
